--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Họ tên</t>
   </si>
@@ -35,37 +35,34 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">Thành  Hậu</t>
-  </si>
-  <si>
-    <t>haupham809@gmail.com</t>
+    <t xml:space="preserve">Phạm Thành  Hậu</t>
+  </si>
+  <si>
+    <t>1@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>haupham2@gmail.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>haupham3@gmail.com</t>
-  </si>
-  <si>
-    <t>haupham4@gmail.com</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -128,14 +125,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.521821975708" customWidth="1"/>
-    <col min="2" max="2" width="33.9146766662598" customWidth="1"/>
+    <col min="1" max="1" width="23.5128917694092" customWidth="1"/>
+    <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="26.5649738311768" customWidth="1"/>
     <col min="4" max="4" width="21.3759860992432" customWidth="1"/>
     <col min="5" max="5" width="29.7003898620605" customWidth="1"/>
@@ -206,10 +203,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -217,7 +214,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -229,10 +226,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -240,22 +237,68 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,28 +41,16 @@
     <t>1@gmail.com</t>
   </si>
   <si>
-    <t>0</t>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t/>
+    <t>0</t>
   </si>
   <si>
-    <t>2@gmail.com</t>
-  </si>
-  <si>
-    <t>3@gmail.com</t>
-  </si>
-  <si>
-    <t>4@gmail.com</t>
-  </si>
-  <si>
-    <t>5@gmail.com</t>
-  </si>
-  <si>
-    <t>6@gmail.com</t>
+    <t>28</t>
   </si>
 </sst>
 </file>
@@ -125,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -174,131 +162,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Họ tên</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>28</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -113,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -174,6 +192,121 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Họ tên</t>
   </si>
@@ -35,40 +35,43 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">Phạm Thành  Hậu</t>
-  </si>
-  <si>
-    <t>1@gmail.com</t>
+    <t xml:space="preserve">pham thanh  hau</t>
+  </si>
+  <si>
+    <t>2@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2@gmail.com</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>3@gmail.com</t>
-  </si>
-  <si>
-    <t>4@gmail.com</t>
-  </si>
-  <si>
     <t>5@gmail.com</t>
   </si>
   <si>
     <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5128917694092" customWidth="1"/>
+    <col min="1" max="1" width="22.7554492950439" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="26.5649738311768" customWidth="1"/>
     <col min="4" max="4" width="21.3759860992432" customWidth="1"/>
@@ -183,13 +186,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -197,19 +200,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>14</v>
@@ -223,19 +226,19 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -243,22 +246,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -266,22 +269,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -289,22 +292,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Họ tên</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t xml:space="preserve">pham thanh  hau</t>
+    <t>2 hau</t>
   </si>
   <si>
     <t>2@gmail.com</t>
@@ -48,30 +48,6 @@
   </si>
   <si>
     <t>88</t>
-  </si>
-  <si>
-    <t>3@gmail.com</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4@gmail.com</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>5@gmail.com</t>
-  </si>
-  <si>
-    <t>6@gmail.com</t>
-  </si>
-  <si>
-    <t>7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -134,13 +110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7554492950439" customWidth="1"/>
+    <col min="1" max="1" width="9.59920501708984" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="26.5649738311768" customWidth="1"/>
     <col min="4" max="4" width="21.3759860992432" customWidth="1"/>
@@ -195,121 +171,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Họ tên</t>
   </si>
@@ -35,19 +35,64 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>2 hau</t>
+    <t>Nguyễn Văn Kha</t>
   </si>
   <si>
     <t>2@gmail.com</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Phụng</t>
+  </si>
+  <si>
+    <t>5@gmail.com</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>6@gmail.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sương</t>
+  </si>
+  <si>
+    <t>7@gmail.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thế</t>
+  </si>
+  <si>
+    <t>3@gmail.com</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Việt</t>
+  </si>
+  <si>
+    <t>4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -110,13 +155,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.59920501708984" customWidth="1"/>
+    <col min="1" max="1" width="25.4295558929443" customWidth="1"/>
     <col min="2" max="2" width="18.6245002746582" customWidth="1"/>
     <col min="3" max="3" width="26.5649738311768" customWidth="1"/>
     <col min="4" max="4" width="21.3759860992432" customWidth="1"/>
@@ -162,13 +207,128 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
